--- a/文档/面试/面试.xlsx
+++ b/文档/面试/面试.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>移动端适配</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -446,13 +446,28 @@
       </rPr>
       <t> 构造器，第二个参数是一个可选的选项对象：</t>
     </r>
+  </si>
+  <si>
+    <t>前端权限管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需使用 web 服务器实时动态编译 HTML，而是使用预渲染方式，在构建时 (build time) 简单地生成针对特定路由的静态 HTML 文件。优点是设置预渲染更简单，并可以将你的前端作为一个完全静态的站点。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,6 +537,12 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2C3E50"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -544,7 +565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -560,6 +581,9 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -867,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1001,6 +1025,24 @@
     <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
